--- a/result/stock.xlsx
+++ b/result/stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="520">
   <si>
     <t/>
   </si>
@@ -49,12 +49,36 @@
     <t>MinPrice</t>
   </si>
   <si>
+    <t>05/02/2021</t>
+  </si>
+  <si>
+    <t>1,126.91</t>
+  </si>
+  <si>
+    <t>14.72điểm (1.32 %)</t>
+  </si>
+  <si>
+    <t>436,892,900</t>
+  </si>
+  <si>
+    <t>10,297,578,260,000</t>
+  </si>
+  <si>
+    <t>54,288,369</t>
+  </si>
+  <si>
+    <t>1,645,584,675,380</t>
+  </si>
+  <si>
+    <t>1,114.79</t>
+  </si>
+  <si>
+    <t>1,112.19</t>
+  </si>
+  <si>
     <t>04/02/2021</t>
   </si>
   <si>
-    <t>1,112.19</t>
-  </si>
-  <si>
     <t>0.90điểm (0.08 %)</t>
   </si>
   <si>
@@ -589,34 +613,31 @@
     <t>1,175.00</t>
   </si>
   <si>
-    <t>08/01/2021</t>
-  </si>
-  <si>
-    <t>1,167.69</t>
-  </si>
-  <si>
-    <t>11.20điểm (0.97 %)</t>
-  </si>
-  <si>
-    <t>724,072,400</t>
-  </si>
-  <si>
-    <t>16,021,994,130,000</t>
-  </si>
-  <si>
-    <t>37,886,848</t>
-  </si>
-  <si>
-    <t>1,482,412,502,000</t>
-  </si>
-  <si>
-    <t>1,164.10</t>
-  </si>
-  <si>
-    <t>1,176.33</t>
-  </si>
-  <si>
-    <t>1,160.48</t>
+    <t>73.89</t>
+  </si>
+  <si>
+    <t>-0.17điểm (-0.23 %)</t>
+  </si>
+  <si>
+    <t>61,872,493</t>
+  </si>
+  <si>
+    <t>519,795,667,100</t>
+  </si>
+  <si>
+    <t>18,731,663</t>
+  </si>
+  <si>
+    <t>349,883,798,300</t>
+  </si>
+  <si>
+    <t>74.07</t>
+  </si>
+  <si>
+    <t>74.48</t>
+  </si>
+  <si>
+    <t>73.43</t>
   </si>
   <si>
     <t>74.06</t>
@@ -640,9 +661,6 @@
     <t>73.35</t>
   </si>
   <si>
-    <t>74.07</t>
-  </si>
-  <si>
     <t>73.19</t>
   </si>
   <si>
@@ -1084,25 +1102,31 @@
     <t>76.07</t>
   </si>
   <si>
-    <t>0.69điểm (0.91 %)</t>
-  </si>
-  <si>
-    <t>102,175,816</t>
-  </si>
-  <si>
-    <t>1,109,426,921,500</t>
-  </si>
-  <si>
-    <t>1,395,512</t>
-  </si>
-  <si>
-    <t>77,969,844,800</t>
-  </si>
-  <si>
-    <t>75.38</t>
-  </si>
-  <si>
-    <t>76.08</t>
+    <t>223.84</t>
+  </si>
+  <si>
+    <t>0.16điểm (0.07 %)</t>
+  </si>
+  <si>
+    <t>98,632,935</t>
+  </si>
+  <si>
+    <t>2,031,784,292,900</t>
+  </si>
+  <si>
+    <t>10,975,710</t>
+  </si>
+  <si>
+    <t>50,737,151,500</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>227.19</t>
+  </si>
+  <si>
+    <t>221.88</t>
   </si>
   <si>
     <t>223.68</t>
@@ -1123,9 +1147,6 @@
     <t>216,781,407,800</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>225.73</t>
   </si>
   <si>
@@ -1553,24 +1574,6 @@
   </si>
   <si>
     <t>217.40</t>
-  </si>
-  <si>
-    <t>1.17điểm (0.54 %)</t>
-  </si>
-  <si>
-    <t>165,060,870</t>
-  </si>
-  <si>
-    <t>2,253,361,888,000</t>
-  </si>
-  <si>
-    <t>3,275,945</t>
-  </si>
-  <si>
-    <t>45,956,235,800</t>
-  </si>
-  <si>
-    <t>218.12</t>
   </si>
 </sst>
 </file>
@@ -1679,71 +1682,71 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>38</v>
@@ -1754,380 +1757,380 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
         <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>55</v>
       </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>62</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>63</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>71</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>73</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>74</v>
-      </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>79</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>80</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>81</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>82</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>83</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>84</v>
-      </c>
-      <c r="J9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>87</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>88</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>89</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>90</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>91</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>92</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>93</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>96</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>97</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>98</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>99</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>100</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>101</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>102</v>
-      </c>
-      <c r="I11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
         <v>105</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>107</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>108</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>109</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>110</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>111</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>112</v>
-      </c>
-      <c r="I12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
         <v>114</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>116</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>117</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>118</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>119</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>120</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
         <v>121</v>
-      </c>
-      <c r="I13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>125</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>126</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>127</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>128</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>129</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>130</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>131</v>
-      </c>
-      <c r="I14" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>135</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>136</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>137</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>138</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>139</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>140</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>141</v>
-      </c>
-      <c r="J15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
         <v>143</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>144</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>145</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>146</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>147</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>148</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>149</v>
-      </c>
-      <c r="H16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" t="s">
-        <v>151</v>
       </c>
       <c r="J16" t="s">
         <v>150</v>
@@ -2135,162 +2138,162 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
         <v>152</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>153</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>154</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>155</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>156</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>157</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>158</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>159</v>
       </c>
-      <c r="I17" t="s">
-        <v>160</v>
-      </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" t="s">
         <v>162</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>163</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>164</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>165</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>166</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>167</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>168</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>169</v>
-      </c>
-      <c r="I18" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
         <v>172</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>173</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>174</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>175</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>176</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>177</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>178</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>179</v>
-      </c>
-      <c r="I19" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
         <v>181</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>182</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>183</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>184</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>185</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>186</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>187</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
         <v>188</v>
-      </c>
-      <c r="I20" t="s">
-        <v>189</v>
-      </c>
-      <c r="J20" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
         <v>191</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>192</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>193</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>194</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>195</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>196</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>197</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>198</v>
-      </c>
-      <c r="I21" t="s">
-        <v>199</v>
-      </c>
-      <c r="J21" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2343,95 +2346,95 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
         <v>201</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>202</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>203</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>204</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>205</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>206</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>207</v>
-      </c>
-      <c r="I2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>211</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>212</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>213</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>214</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" t="s">
         <v>215</v>
-      </c>
-      <c r="H3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" t="s">
-        <v>217</v>
-      </c>
-      <c r="J3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
         <v>219</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>220</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>221</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>222</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>223</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>224</v>
-      </c>
-      <c r="H4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5">
@@ -2442,217 +2445,217 @@
         <v>225</v>
       </c>
       <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
         <v>228</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>229</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>230</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>231</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>232</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>233</v>
-      </c>
-      <c r="I5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" t="s">
         <v>236</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>237</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>238</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>239</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>240</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>241</v>
-      </c>
-      <c r="H6" t="s">
-        <v>242</v>
-      </c>
-      <c r="I6" t="s">
-        <v>243</v>
-      </c>
-      <c r="J6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>242</v>
       </c>
       <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" t="s">
         <v>245</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>246</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>247</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>248</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>249</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>250</v>
-      </c>
-      <c r="I7" t="s">
-        <v>250</v>
-      </c>
-      <c r="J7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" t="s">
         <v>252</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>253</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>254</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>255</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>256</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8" t="s">
         <v>257</v>
-      </c>
-      <c r="I8" t="s">
-        <v>258</v>
-      </c>
-      <c r="J8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" t="s">
         <v>260</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>261</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>262</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>263</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>264</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>265</v>
-      </c>
-      <c r="H9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I9" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" t="s">
         <v>269</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>270</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>271</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>272</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>273</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>274</v>
-      </c>
-      <c r="H10" t="s">
-        <v>275</v>
-      </c>
-      <c r="I10" t="s">
-        <v>276</v>
-      </c>
-      <c r="J10" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>275</v>
       </c>
       <c r="C11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" t="s">
         <v>278</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>279</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>280</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>281</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>282</v>
-      </c>
-      <c r="H11" t="s">
-        <v>283</v>
-      </c>
-      <c r="I11" t="s">
-        <v>284</v>
       </c>
       <c r="J11" t="s">
         <v>283</v>
@@ -2660,295 +2663,295 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" t="s">
         <v>285</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>286</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>287</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>288</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>289</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>290</v>
       </c>
-      <c r="I12" t="s">
-        <v>283</v>
-      </c>
       <c r="J12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" t="s">
         <v>292</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>293</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>294</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>295</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>296</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>289</v>
+      </c>
+      <c r="J13" t="s">
         <v>297</v>
-      </c>
-      <c r="I13" t="s">
-        <v>298</v>
-      </c>
-      <c r="J13" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" t="s">
         <v>300</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>301</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>302</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>303</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>304</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>305</v>
-      </c>
-      <c r="I14" t="s">
-        <v>306</v>
-      </c>
-      <c r="J14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" t="s">
         <v>308</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>309</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>310</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>311</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>312</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>313</v>
-      </c>
-      <c r="H15" t="s">
-        <v>314</v>
-      </c>
-      <c r="I15" t="s">
-        <v>315</v>
-      </c>
-      <c r="J15" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" t="s">
         <v>317</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>319</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>320</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>321</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>323</v>
-      </c>
-      <c r="I16" t="s">
-        <v>324</v>
-      </c>
-      <c r="J16" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
         <v>323</v>
       </c>
       <c r="C17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" t="s">
         <v>325</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>326</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>327</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>328</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>329</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>330</v>
       </c>
-      <c r="I17" t="s">
-        <v>331</v>
-      </c>
       <c r="J17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D18" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" t="s">
         <v>333</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>334</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>335</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>336</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>337</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>338</v>
-      </c>
-      <c r="I18" t="s">
-        <v>339</v>
-      </c>
-      <c r="J18" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s">
         <v>341</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>342</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>343</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>344</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>345</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>346</v>
-      </c>
-      <c r="I19" t="s">
-        <v>347</v>
-      </c>
-      <c r="J19" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" t="s">
         <v>349</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>350</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>351</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>352</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>353</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>354</v>
-      </c>
-      <c r="H20" t="s">
-        <v>355</v>
-      </c>
-      <c r="I20" t="s">
-        <v>349</v>
-      </c>
-      <c r="J20" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
         <v>355</v>
@@ -2972,7 +2975,7 @@
         <v>361</v>
       </c>
       <c r="I21" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="J21" t="s">
         <v>361</v>
@@ -3028,95 +3031,95 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" t="s">
         <v>363</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>364</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>365</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>366</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>367</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>368</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>369</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>370</v>
-      </c>
-      <c r="J2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" t="s">
         <v>372</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>373</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>374</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>375</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>376</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" t="s">
         <v>377</v>
       </c>
-      <c r="H3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>378</v>
-      </c>
-      <c r="J3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" t="s">
         <v>380</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>381</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>382</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>383</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>384</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I4" t="s">
         <v>385</v>
       </c>
-      <c r="H4" t="s">
-        <v>369</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>386</v>
-      </c>
-      <c r="J4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="5">
@@ -3124,196 +3127,196 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" t="s">
         <v>388</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>389</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>390</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>391</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>392</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I5" t="s">
         <v>393</v>
       </c>
-      <c r="H5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>394</v>
-      </c>
-      <c r="J5" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" t="s">
         <v>396</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>397</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>398</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>399</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>400</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I6" t="s">
         <v>401</v>
       </c>
-      <c r="H6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>402</v>
-      </c>
-      <c r="J6" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" t="s">
         <v>404</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>405</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>406</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>407</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>408</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I7" t="s">
         <v>409</v>
       </c>
-      <c r="H7" t="s">
-        <v>369</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>410</v>
-      </c>
-      <c r="J7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" t="s">
         <v>412</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>413</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>414</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>415</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>416</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>368</v>
+      </c>
+      <c r="I8" t="s">
         <v>417</v>
       </c>
-      <c r="H8" t="s">
-        <v>369</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>418</v>
-      </c>
-      <c r="J8" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" t="s">
         <v>420</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>421</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>422</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>423</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>424</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>368</v>
+      </c>
+      <c r="I9" t="s">
         <v>425</v>
       </c>
-      <c r="H9" t="s">
-        <v>369</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>426</v>
-      </c>
-      <c r="J9" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" t="s">
         <v>428</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>429</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>430</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>431</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>432</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" t="s">
         <v>433</v>
       </c>
-      <c r="H10" t="s">
-        <v>369</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>434</v>
-      </c>
-      <c r="J10" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>435</v>
@@ -3334,74 +3337,74 @@
         <v>440</v>
       </c>
       <c r="H11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I11" t="s">
         <v>441</v>
       </c>
       <c r="J11" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" t="s">
         <v>443</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>444</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>445</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>447</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>368</v>
+      </c>
+      <c r="I12" t="s">
         <v>448</v>
       </c>
-      <c r="H12" t="s">
-        <v>369</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>449</v>
-      </c>
-      <c r="J12" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" t="s">
         <v>451</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>452</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>453</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>454</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>455</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>368</v>
+      </c>
+      <c r="I13" t="s">
         <v>456</v>
-      </c>
-      <c r="H13" t="s">
-        <v>369</v>
-      </c>
-      <c r="I13" t="s">
-        <v>451</v>
       </c>
       <c r="J13" t="s">
         <v>457</v>
@@ -3409,7 +3412,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>458</v>
@@ -3430,170 +3433,170 @@
         <v>463</v>
       </c>
       <c r="H14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I14" t="s">
+        <v>458</v>
+      </c>
+      <c r="J14" t="s">
         <v>464</v>
-      </c>
-      <c r="J14" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" t="s">
         <v>466</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>467</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>468</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>469</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>470</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I15" t="s">
         <v>471</v>
       </c>
-      <c r="H15" t="s">
-        <v>369</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>472</v>
-      </c>
-      <c r="J15" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" t="s">
         <v>474</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>475</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>476</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>477</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>478</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>368</v>
+      </c>
+      <c r="I16" t="s">
         <v>479</v>
       </c>
-      <c r="H16" t="s">
-        <v>369</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>480</v>
-      </c>
-      <c r="J16" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" t="s">
         <v>482</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>483</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>484</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>485</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>486</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>368</v>
+      </c>
+      <c r="I17" t="s">
         <v>487</v>
       </c>
-      <c r="H17" t="s">
-        <v>369</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>488</v>
-      </c>
-      <c r="J17" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C18" t="s">
         <v>490</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>491</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>492</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>493</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>494</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>368</v>
+      </c>
+      <c r="I18" t="s">
         <v>495</v>
       </c>
-      <c r="H18" t="s">
-        <v>369</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>496</v>
-      </c>
-      <c r="J18" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
+        <v>497</v>
+      </c>
+      <c r="C19" t="s">
         <v>498</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>499</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>500</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>501</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>502</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>368</v>
+      </c>
+      <c r="I19" t="s">
         <v>503</v>
-      </c>
-      <c r="H19" t="s">
-        <v>369</v>
-      </c>
-      <c r="I19" t="s">
-        <v>498</v>
       </c>
       <c r="J19" t="s">
         <v>504</v>
@@ -3601,7 +3604,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
         <v>505</v>
@@ -3622,18 +3625,18 @@
         <v>510</v>
       </c>
       <c r="H20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I20" t="s">
+        <v>505</v>
+      </c>
+      <c r="J20" t="s">
         <v>511</v>
-      </c>
-      <c r="J20" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
         <v>512</v>
@@ -3654,13 +3657,13 @@
         <v>517</v>
       </c>
       <c r="H21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I21" t="s">
         <v>518</v>
       </c>
       <c r="J21" t="s">
-        <v>386</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
